--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-31360" yWindow="2520" windowWidth="28180" windowHeight="24500" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-31360" yWindow="2520" windowWidth="28180" windowHeight="24500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="text_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13778,7 +13778,7 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-40740" yWindow="2380" windowWidth="28180" windowHeight="24500" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="text_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>宝可梦MON MART</t>
+          <t>#MON MART</t>
         </is>
       </c>
       <c r="K53" s="1" t="n"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Heal Your 宝可梦MON!</t>
+          <t>Heal Your #MON!</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTER</t>
+          <t>#MON CENTER</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>kinds of 宝可梦MON,</t>
+          <t>kinds of #MON,</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>kinds of 宝可梦MON!</t>
+          <t>kinds of #MON!</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>of 宝可梦MON!</t>
+          <t>of #MON!</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4248,8 +4248,8 @@
   </sheetPr>
   <dimension ref="A1:M1794"/>
   <sheetViews>
-    <sheetView topLeftCell="A1749" workbookViewId="0">
-      <selection activeCell="G1105" sqref="G1105"/>
+    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
+      <selection activeCell="G887" sqref="G887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>宝可梦MON GYM</t>
+          <t>#MON GYM</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>宝可梦MON GYM</t>
+          <t>#MON GYM</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTERs</t>
+          <t>#MON CENTERs</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTERs</t>
+          <t>#MON CENTERs</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>宝可梦MON!</t>
+          <t>#MON!</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>宝可梦MON!</t>
+          <t>#MON!</t>
         </is>
       </c>
       <c r="J164" s="1" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>sings, 宝可梦MON</t>
+          <t>sings, #MON</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>宝可梦MON!</t>
+          <t>#MON!</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>宝可梦MON!</t>
+          <t>#MON!</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>many 宝可梦MON, you</t>
+          <t>many #MON, you</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>catch 宝可梦MON.</t>
+          <t>catch #MON.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>catch 宝可梦MON.</t>
+          <t>catch #MON.</t>
         </is>
       </c>
       <c r="J209" s="1" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>宝可梦MON will be</t>
+          <t>#MON will be</t>
         </is>
       </c>
       <c r="J226" s="1" t="n"/>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>But, all 宝可梦MON</t>
+          <t>But, all #MON</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>strong 宝可梦MON.</t>
+          <t>strong #MON.</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>宝可梦MON, visit</t>
+          <t>#MON, visit</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>宝可梦MON, visit</t>
+          <t>#MON, visit</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>of rare 宝可梦MON.</t>
+          <t>of rare #MON.</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>of rare 宝可梦MON.</t>
+          <t>of rare #MON.</t>
         </is>
       </c>
     </row>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>宝可梦MON can still</t>
+          <t>#MON can still</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>宝可梦MON books!</t>
+          <t>#MON books!</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>All 宝可梦MON types</t>
+          <t>All #MON types</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>宝可梦MON Quiz!</t>
+          <t>#MON Quiz!</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>宝可梦MON Quiz!</t>
+          <t>#MON Quiz!</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>宝可梦MON for the</t>
+          <t>#MON for the</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -12650,7 +12650,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>宝可梦MON for the</t>
+          <t>#MON for the</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>certified 宝可梦MON</t>
+          <t>certified #MON</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>certified 宝可梦MON</t>
+          <t>certified #MON</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>type 宝可梦MON?</t>
+          <t>type #MON?</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>type 宝可梦MON?</t>
+          <t>type #MON?</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>宝可梦MON of the</t>
+          <t>#MON of the</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>宝可梦MON of the</t>
+          <t>#MON of the</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>宝可梦MON magazines!</t>
+          <t>#MON magazines!</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>宝可梦MON notebooks!</t>
+          <t>#MON notebooks!</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>宝可梦MON graphs!</t>
+          <t>#MON graphs!</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>宝可梦MON list!</t>
+          <t>#MON list!</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>宝可梦MON list!</t>
+          <t>#MON list!</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Which 宝可梦MON do</t>
+          <t>Which #MON do</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>宝可梦MON trainers!</t>
+          <t>#MON trainers!</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>of 宝可梦MON LEAGUE</t>
+          <t>of #MON LEAGUE</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>宝可梦MON and see</t>
+          <t>#MON and see</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>宝可梦MON LEAGUE HQ</t>
+          <t>#MON LEAGUE HQ</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>宝可梦MON.</t>
+          <t>#MON.</t>
         </is>
       </c>
       <c r="J507" s="1" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Up to 6 宝可梦MON</t>
+          <t>Up to 6 #MON</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>and make 宝可梦MON</t>
+          <t>and make #MON</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>宝可梦MON trainers.</t>
+          <t>#MON trainers.</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>A healthy 宝可梦MON</t>
+          <t>A healthy #MON</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>A healthy 宝可梦MON</t>
+          <t>A healthy #MON</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -17447,7 +17447,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>宝可梦MON trainers</t>
+          <t>#MON trainers</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -17531,7 +17531,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>engage in 宝可梦MON</t>
+          <t>engage in #MON</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>at 宝可梦MON GYMs.</t>
+          <t>at #MON GYMs.</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>宝可梦MON trainers</t>
+          <t>#MON trainers</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>top 8 宝可梦MON</t>
+          <t>top 8 #MON</t>
         </is>
       </c>
       <c r="J550" s="1" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>宝可梦MON LEAGUE!</t>
+          <t>#MON LEAGUE!</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>宝可梦MON LEAGUE HQ</t>
+          <t>#MON LEAGUE HQ</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -19030,7 +19030,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>rare 宝可梦MON.</t>
+          <t>rare #MON.</t>
         </is>
       </c>
       <c r="J598" s="1" t="n"/>
@@ -19205,7 +19205,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>rare 宝可梦MON.</t>
+          <t>rare #MON.</t>
         </is>
       </c>
       <c r="J604" s="1" t="n"/>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTER.</t>
+          <t>#MON CENTER.</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTER.</t>
+          <t>#MON CENTER.</t>
         </is>
       </c>
     </row>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>宝可梦MON.</t>
+          <t>#MON.</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>宝可梦MON.</t>
+          <t>#MON.</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>describes 宝可梦MON</t>
+          <t>describes #MON</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>A 宝可梦MON can't</t>
+          <t>A #MON can't</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>宝可梦MON will stay</t>
+          <t>#MON will stay</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -20784,7 +20784,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>宝可梦MON's health</t>
+          <t>#MON's health</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>make 宝可梦MON</t>
+          <t>make #MON</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>宝可梦MON becomes</t>
+          <t>#MON becomes</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -21924,7 +21924,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>thaw out 宝可梦MON!</t>
+          <t>thaw out #MON!</t>
         </is>
       </c>
     </row>
@@ -23905,7 +23905,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>宝可梦MON LEAGUE HQ</t>
+          <t>#MON LEAGUE HQ</t>
         </is>
       </c>
       <c r="J793" s="1" t="n"/>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>宝可梦MON authority</t>
+          <t>#MON authority</t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
@@ -24042,7 +24042,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>宝可梦MON LEAGUE HQ</t>
+          <t>#MON LEAGUE HQ</t>
         </is>
       </c>
       <c r="J799" s="1" t="inlineStr">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>宝可梦MON books!</t>
+          <t>#MON books!</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
@@ -24559,7 +24559,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>宝可梦MON stuff!</t>
+          <t>#MON stuff!</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
@@ -26090,7 +26090,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Use next 宝可梦MON?</t>
+          <t>Use next #MON?</t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>要使用下只宝可梦吗?</t>
+          <t>要使用</t>
         </is>
       </c>
       <c r="J890" s="1" t="inlineStr">
@@ -26132,16 +26132,26 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>下只宝可梦吗?</t>
+        </is>
+      </c>
+      <c r="K891" s="1" t="inlineStr">
+        <is>
+          <t>ポケモンを　たたかわせる…!</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="F892" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="K891" s="1" t="inlineStr">
-        <is>
-          <t>ポケモンを　たたかわせる…!</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
       <c r="K892" s="1" t="n"/>
     </row>
     <row r="893">
@@ -26344,7 +26354,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>useable 宝可梦MON!</t>
+          <t>useable #MON!</t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
@@ -26910,7 +26920,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>change 宝可梦MON?</t>
+          <t>change #MON?</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
@@ -36827,7 +36837,7 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>Choose a 宝可梦MON.</t>
+          <t>Choose a #MON.</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr">
@@ -36951,7 +36961,7 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="J1369" t="inlineStr">
@@ -37061,7 +37071,7 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="J1374" t="inlineStr">
@@ -37181,7 +37191,7 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="J1379" t="inlineStr">
@@ -37249,7 +37259,7 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Move 宝可梦MON</t>
+          <t>Move #MON</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr">
@@ -38929,7 +38939,7 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Accessed 宝可梦MON</t>
+          <t>Accessed #MON</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr">
@@ -39092,7 +39102,7 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Accessed 宝可梦MON</t>
+          <t>Accessed #MON</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
@@ -41008,7 +41018,7 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Accessed 宝可梦MON</t>
+          <t>Accessed #MON</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr">
@@ -41456,7 +41466,7 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
@@ -41779,7 +41789,7 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>the last 宝可梦MON!</t>
+          <t>the last #MON!</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
@@ -41903,7 +41913,7 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>full of 宝可梦MON.</t>
+          <t>full of #MON.</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr">
@@ -42253,7 +42263,7 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>no 宝可梦MON here!</t>
+          <t>no #MON here!</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
@@ -42382,7 +42392,7 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>any more 宝可梦MON.</t>
+          <t>any more #MON.</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
@@ -42434,7 +42444,7 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Deposit 宝可梦MON</t>
+          <t>Deposit #MON</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -42566,7 +42576,7 @@
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="J1606" t="inlineStr">
@@ -44762,7 +44772,7 @@
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t>world of 宝可梦MON!</t>
+          <t>world of #MON!</t>
         </is>
       </c>
       <c r="F1702" s="4" t="n"/>
@@ -44884,7 +44894,7 @@
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>the 宝可梦MON PROF!</t>
+          <t>the #MON PROF!</t>
         </is>
       </c>
       <c r="F1706" s="5" t="inlineStr">
@@ -45069,7 +45079,7 @@
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>宝可梦MON!@</t>
+          <t>#MON!@</t>
         </is>
       </c>
       <c r="F1713" s="5" t="inlineStr">
@@ -45222,7 +45232,7 @@
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t>宝可梦MON are</t>
+          <t>#MON are</t>
         </is>
       </c>
       <c r="F1720" t="inlineStr">
@@ -45367,7 +45377,7 @@
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>I study 宝可梦MON</t>
+          <t>I study #MON</t>
         </is>
       </c>
       <c r="F1726" t="inlineStr">
@@ -45836,7 +45846,7 @@
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>宝可梦MON legend is</t>
+          <t>#MON legend is</t>
         </is>
       </c>
       <c r="F1749" s="5" t="inlineStr">
@@ -45920,7 +45930,7 @@
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>with 宝可梦MON</t>
+          <t>with #MON</t>
         </is>
       </c>
       <c r="F1754" s="5" t="inlineStr">
@@ -47535,7 +47545,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>宝可梦MON BOX, data</t>
+          <t>#MON BOX, data</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -54352,8 +54362,8 @@
   </sheetPr>
   <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -54691,7 +54701,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>useable 宝可梦MON!</t>
+          <t>useable #MON!</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -58315,7 +58325,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTER!</t>
+          <t>#MON CENTER!</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -58395,7 +58405,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>宝可梦MON back to</t>
+          <t>#MON back to</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -58501,7 +58511,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>宝可梦MON?</t>
+          <t>#MON?</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -58636,7 +58646,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>your 宝可梦MON.</t>
+          <t>your #MON.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -58766,7 +58776,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Your 宝可梦MON are</t>
+          <t>Your #MON are</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -61244,7 +61254,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>宝可梦MON CENTER.</t>
+          <t>#MON CENTER.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -62253,7 +62263,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>room for 宝可梦MON!</t>
+          <t>room for #MON!</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -62263,7 +62273,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>room for 宝可梦MON!</t>
+          <t>room for #MON!</t>
         </is>
       </c>
       <c r="J87" s="1" t="n"/>
@@ -62397,7 +62407,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sent to 宝可梦MON</t>
+          <t>sent to #MON</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -62407,7 +62417,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>sent to 宝可梦MON</t>
+          <t>sent to #MON</t>
         </is>
       </c>
       <c r="J91" s="1" t="inlineStr">
@@ -62625,7 +62635,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>room for 宝可梦MON!</t>
+          <t>room for #MON!</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -62635,7 +62645,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>room for 宝可梦MON!</t>
+          <t>room for #MON!</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -62674,7 +62684,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>The 宝可梦MON BOX</t>
+          <t>The #MON BOX</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -62684,7 +62694,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>The 宝可梦MON BOX</t>
+          <t>The #MON BOX</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -62839,7 +62849,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>a 宝可梦MON CENTER!</t>
+          <t>a #MON CENTER!</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -62849,7 +62859,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>a 宝可梦MON CENTER!</t>
+          <t>a #MON CENTER!</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -63089,7 +63099,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>This 宝可梦MON</t>
+          <t>This #MON</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -63216,7 +63226,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝可梦MON!</t>
+          <t>#MON!</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -63288,7 +63298,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Darn! The 宝可梦MON</t>
+          <t>Darn! The #MON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -65416,7 +65426,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>宝可梦MON woke up.</t>
+          <t>#MON woke up.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -67098,7 +67108,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>to a 宝可梦MON?</t>
+          <t>to a #MON?</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -68358,7 +68368,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>The 宝可梦MON BOX</t>
+          <t>The #MON BOX</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="39640" windowHeight="26840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="text_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -202,16 +202,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M191" sqref="M191"/>
+    <sheetView topLeftCell="A199" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -232,6 +232,5615 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>data/text/text_6.asm</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>翻译区</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Gen1:JPN</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>LGPE:CHS (Auto Match)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Gen1:JPN (Auto Match)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LGPE:JPN (Auto Match)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LGPE:ENG (Auto Match)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText00::</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText00::</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>It dodged the</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>幽灵躲开了</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>よけられた!</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>thrown BALL!</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>精灵球！</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>こいつは　つかまりそうにないぞ!</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>This #MON</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>无法捕捉</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>can't be caught!</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>这只宝可梦！</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText01::</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText01::</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>You missed the</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>没能</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ポケモンに</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>我不知道该说什么才好！</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>わしゃ　もう　いうことは　ない!</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>わしゃ　もう　いうことは　ない！</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>I have nothing left to say!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>#MON!</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>投中宝可梦！</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>うまく　あたらなかった!</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>你才是宝可梦博士哇！</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>きみが　ポケモンはかせ　じゃ!</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>きみが　ポケモンはかせ　じゃ！</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>You’re the Pokémon Professor now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText02::</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText02::</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Darn! The #MON</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>不行！宝可梦从</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>不行！宝可梦从</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>ざんねん!　ポケモンが</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>だめだ！　ポケモンが</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>Ah, no!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>broke free!</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>球里挣脱出来了！</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>球里挣脱出来了！</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>ボールから　でてしまった!</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>ボールから　でてしまった！</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>The Pokémon broke free from the Poké Ball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="n"/>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText03::</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText03::</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Aww! It appeared</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>啊啊！</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>啊啊！</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>ああ!</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>ああ！</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>Aww!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>to be caught!</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>还以为捉到了！</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>还以为捉到了！</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>つかまえたと　おもったのに!</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>つかまえたと　おもったのに！</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>It appeared to be caught!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="n"/>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText04::</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText04::</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Shoot! It was so</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>可惜啊！</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>真舒服……</t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>おし!</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>きもち　いい……</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>It’s so pleasant...</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>close too!</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>就还差一点点了！</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>……呼……呼～</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>いい　しょうぶ　だった</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>……　すー……　すー</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="n"/>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>... ... ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText05::</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText05::</t>
+        </is>
+      </c>
+      <c r="M30" s="1" t="inlineStr">
+        <is>
+          <t>... ... Zzz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>All right!</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>太好了！</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>捉到@</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wEnemyMonNick </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>wEnemyMonNick</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> was</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>了！@</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>caught!@</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText07::</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText07::</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wBoxMonNicks </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>把@</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> was</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>wBoxMonNicks</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>transferred to</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BILL's PC!</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>传送到了正辉的电脑！</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText08::</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText08::</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wBoxMonNicks </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>把@</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> was</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>wBoxMonNicks</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>transferred to</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>someone's PC!</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>传送到了某人的电脑！</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText06::</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>_ItemUseBallText06::</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>New 宝可梦DEX data</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M53" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>will be added for</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>wEnemyMonNick</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L54" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M54" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>的资料</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wEnemyMonNick </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>被添加到宝可梦图鉴里了！@</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>!@</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="59"/>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>_SurfingGotOnText::</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>_SurfingGotOnText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt; got on</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt;骑上了</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wcd6d </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>wcd6d</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>！</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>_SurfingNoPlaceToGetOffText::</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>_SurfingNoPlaceToGetOffText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>There's no place</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>没有可以</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>to get off!</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>下来的地方！</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>_VitaminStatRoseText::</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>_VitaminStatRoseText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wcd6d </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>wcd6d</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>の</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rose.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>基础点数提高了！</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>きそ　ポイントが　あがった!</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>_VitaminNoEffectText::</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>_VitaminNoEffectText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>It won't have any</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>就算使用</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>つかっても　こうかが　ないよ</t>
+        </is>
+      </c>
+      <c r="J81" s="1" t="inlineStr">
+        <is>
+          <t>就算使用也不会有效果哦。</t>
+        </is>
+      </c>
+      <c r="K81" s="1" t="inlineStr">
+        <is>
+          <t>…あら</t>
+        </is>
+      </c>
+      <c r="L81" s="1" t="inlineStr">
+        <is>
+          <t>つかっても　こうかが　ないよ</t>
+        </is>
+      </c>
+      <c r="M81" s="1" t="inlineStr">
+        <is>
+          <t>It won’t have any effect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>effect.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>也不会有效果哦。</t>
+        </is>
+      </c>
+      <c r="K82" s="1" t="inlineStr">
+        <is>
+          <t>おかねが　ないよ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K83" s="1" t="n"/>
+    </row>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>_ThrewBaitText::</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>_ThrewBaitText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt; threw</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt;</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>{PLAYER}は　エサを　なげた!</t>
+        </is>
+      </c>
+      <c r="J86" s="1" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K86" s="1" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L86" s="1" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M86" s="1" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>some BAIT.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>投出了诱饵！</t>
+        </is>
+      </c>
+      <c r="J87" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M87" s="1" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>_ThrewRockText::</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>_ThrewRockText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt; threw a</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt;</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>{PLAYER}は　いしを　なげた!</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>……是宝可梦报告！</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>…　ポケモン　レポートだ!</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>……ポケモンレポートだ！</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>It’s a Pokémon Report!</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ROCK.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>投出了石块！</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ポケモンが　つかう　わざは</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>仅是现在已被人知晓的</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>げんざい　わかって　いるだけで</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ポケモンが　つかう　わざは</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Over 200 Pokémon moves have been confirmed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>宝可梦可以使用的招式</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>１６０しゅるい　いじょうある</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>げんざい　わかって　いるだけで</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>_PlayedFluteNoEffectText::</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>_PlayedFluteNoEffectText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Played the 宝可梦</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>吹响了</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ポケモンのふえを　ふいた!</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>你想要那边那个球是吗？</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>あの　アイテム　ボール</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>あの　アイテムボール</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>That Poké Ball over there...</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>FLUTE.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>宝可梦之笛。</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>うーん!</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>…………我也想要啊！</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ほしいって　おもった?</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>ほしいって　おもった？</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Were you wanting that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>すばらしい　ねいろだ!</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>…　…　…　ぼくもさ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Now, that's a</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>嗯嗯！</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>什么？那居然不是个球？</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>…　え　あれ　いきものなの?</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>……　……ぼくもさ！</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Well, so was I!</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>catchy tune!</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>多么优美的声音！</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>……え　あれ　いきものなの？</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>...Huh? That’s actually a Pokémon?</t>
+        </is>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>_FluteWokeUpText::</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>_FluteWokeUpText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>All sleeping</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>所有宝可梦</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>すべての　ポケモンが</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>金黄市宝可梦道馆</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>ヤマブキ　シティ　ポケモン　ジム</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>ヤマブキシティ　ポケモンジム</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Saffron City Pokémon Gym</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>#MON woke up.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>都醒过来了！</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>めを　さました!</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>馆主：娜姿</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>りーダー　ナツメ</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>リーダー　ナツメ</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Gym Leader: Sabrina</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>エスパー　しょうじょ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>超能力少女！</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>エスパー　しょうじょ！</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>The Master of Psychic Pokémon!</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>_PlayedFluteHadEffectText::</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>_PlayedFluteHadEffectText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt; played the</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt;吹响了</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>{PLAYER}は</t>
+        </is>
+      </c>
+      <c r="J109" s="1" t="inlineStr">
+        <is>
+          <t>[VAR TRNAME(0000)]</t>
+        </is>
+      </c>
+      <c r="K109" s="1" t="inlineStr">
+        <is>
+          <t>を　つかった!</t>
+        </is>
+      </c>
+      <c r="L109" s="1" t="inlineStr">
+        <is>
+          <t>[VAR TRNAME(0000)]は</t>
+        </is>
+      </c>
+      <c r="M109" s="1" t="inlineStr">
+        <is>
+          <t>You played the Poké Flute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>宝可梦 FLUTE.@</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>宝可梦之笛！@</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>ポケモンのふえを　ふいてみた!</t>
+        </is>
+      </c>
+      <c r="J110" s="1" t="inlineStr">
+        <is>
+          <t>使用了宝可梦之笛！</t>
+        </is>
+      </c>
+      <c r="K110" s="1" t="n"/>
+      <c r="L110" s="1" t="inlineStr">
+        <is>
+          <t>ポケモンのふえを　つかった！</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>text_end</t>
+        </is>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>_CoinCaseNumCoinsText::</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>_CoinCaseNumCoinsText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Coins</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>你的代币数量：@</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>あなたの　コイン</t>
+        </is>
+      </c>
+      <c r="J114" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K114" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L114" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M114" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>text_bcd</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>wPlayerCoins, 2 | LEADING_ZEROES | LEFT_ALIGN</t>
+        </is>
+      </c>
+      <c r="J115" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K115" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L115" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M115" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>text_bcd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wPlayerCoins, 2 | LEADING_ZEROES | LEFT_ALIGN </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J116" s="1" t="n"/>
+      <c r="K116" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L116" s="1" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="J117" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K117" s="1" t="n"/>
+      <c r="L117" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>_ItemfinderFoundItemText::</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>_ItemfinderFoundItemText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Yes! ITEMFINDER</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>哦！</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>おッ!</t>
+        </is>
+      </c>
+      <c r="J121" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K121" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L121" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M121" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>indicates there's</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>机器有反应了！</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>マシンが　はんのう　してるぞ!</t>
+        </is>
+      </c>
+      <c r="J122" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K122" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L122" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M122" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>an item nearby.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>附近埋着道具！</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ちかくに　アイテムが　うまってる!</t>
+        </is>
+      </c>
+      <c r="J123" s="1" t="n"/>
+      <c r="K123" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L123" s="1" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J124" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K124" s="1" t="n"/>
+      <c r="L124" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="125"/>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>_ItemfinderFoundNothingText::</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>_ItemfinderFoundNothingText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nope! ITEMFINDER</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>…… …… 呼！</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>…　…　ふう!</t>
+        </is>
+      </c>
+      <c r="J127" s="1" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K127" s="1" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L127" s="1" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M127" s="1" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>isn't responding.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>……毫无反应。</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>…　なんにも　はんのう　しない</t>
+        </is>
+      </c>
+      <c r="J128" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K128" s="1" t="n"/>
+      <c r="L128" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M128" s="1" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="130"/>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>_RaisePPWhichTechniqueText::</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>_RaisePPWhichTechniqueText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Raise PP of which</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>增加哪个</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>どのわざの</t>
+        </is>
+      </c>
+      <c r="J132" s="1" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K132" s="1" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L132" s="1" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M132" s="1" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>technique?</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>招式的点数？</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>ポイントをふやす?</t>
+        </is>
+      </c>
+      <c r="J133" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K133" s="1" t="n"/>
+      <c r="L133" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M133" s="1" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>_RestorePPWhichTechniqueText::</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>_RestorePPWhichTechniqueText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Restore PP of</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>要回复</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>どのわざを</t>
+        </is>
+      </c>
+      <c r="J137" s="1" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K137" s="1" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L137" s="1" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M137" s="1" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>which technique?</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>哪个招式？</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>かいふくする?</t>
+        </is>
+      </c>
+      <c r="J138" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K138" s="1" t="n"/>
+      <c r="L138" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M138" s="1" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>_PPMaxedOutText::</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>_PPMaxedOutText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>は　これいじょう</t>
+        </is>
+      </c>
+      <c r="J142" s="1" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K142" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L142" s="1" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M142" s="1" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>'s PP</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>ふやすことが　できません</t>
+        </is>
+      </c>
+      <c r="J143" s="1" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K143" s="1" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L143" s="1" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M143" s="1" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>is maxed out.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>无法再增加了。</t>
+        </is>
+      </c>
+      <c r="J144" s="1" t="n"/>
+      <c r="K144" s="1" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+      <c r="L144" s="1" t="n"/>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J145" s="1" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="K145" s="1" t="n"/>
+      <c r="L145" s="1" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>_PPIncreasedText::</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>_PPIncreasedText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>……好了好了！</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>これ　いじょう　もてない!</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>……さてと！　じゃあ</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Well, I guess that’s that...</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>'s PP</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G149" s="8" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>の</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>那这个就先给你了。</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>これ　あげとくな</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>increased.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>招式点数增加了！</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>わざポイントが　ふえた!</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Here, take these. I won’t need ’em now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="152"/>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>_PPRestoredText::</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>_PPRestoredText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PP was restored.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>招式点数回复了！</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>わざポイントが</t>
+        </is>
+      </c>
+      <c r="J154" s="1" t="inlineStr">
+        <is>
+          <t>PP回复了！</t>
+        </is>
+      </c>
+      <c r="K154" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　かいふくした</t>
+        </is>
+      </c>
+      <c r="L154" s="1" t="inlineStr">
+        <is>
+          <t>パワーポイントが　かいふくした！</t>
+        </is>
+      </c>
+      <c r="M154" s="1" t="inlineStr">
+        <is>
+          <t>The move’s PP was restored.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>かいふくした!</t>
+        </is>
+      </c>
+      <c r="K155" s="1" t="n"/>
+    </row>
+    <row r="156"/>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>_BootedUpTMText::</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>_BootedUpTMText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Booted up a TM!</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>启动了招式学习器！</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>……是宝可梦报告！</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>…　ポケモン　レポートだ!</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>……ポケモンレポートだ！</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>It’s a Pokémon Report!</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>ポケモンが　つかう　わざは</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>仅是现在已被人知晓的</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>げんざい　わかって　いるだけで</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>ポケモンが　つかう　わざは</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Over 200 Pokémon moves have been confirmed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>_BootedUpHMText::</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>_BootedUpHMText::</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>宝可梦可以使用的招式</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>１６０しゅるい　いじょうある</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>げんざい　わかって　いるだけで</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Booted up an HM!</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>启动了秘传学习器！</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="164"/>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>_TeachMachineMoveText::</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>_TeachMachineMoveText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>It contained</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>记录着</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>１楼……　服务柜台</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>おくじょう　…　いこいの　ひろば</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>１かい……　サービス・カウンター</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>“1F: Service Counter</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　　　　　…　じどう　はんばいき</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>プ</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>“2F: Trainers’ Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>！</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>３楼……　电子游戏专卖店</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>３かい……　テレビ　ゲーム　ショップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>４楼……　聪明人礼品店</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>４かい……　ワイズマン・ギフト</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>“3F: Video Game Shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Teach @</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="G171" s="6" t="inlineStr">
+        <is>
+          <t>要让宝可梦学习</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G172" s="6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>５楼……　饰品天地</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>５かい……　アクセサリー　マーケット</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>“4F: Wiseman Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>顶楼……　自动贩卖机</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>おくじょう……　じどう　はんばいき</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>to a #MON?</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>吗？</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>“5F: Accessory Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>“Roof: Relaxation Space &amp; Vending Machines”</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>_MonCannotLearnMachineMoveText::</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>_MonCannotLearnMachineMoveText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wcd6d </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>wcd6d</t>
+        </is>
+      </c>
+      <c r="J178" s="1" t="inlineStr">
+        <is>
+          <t>１楼……　服务柜台</t>
+        </is>
+      </c>
+      <c r="K178" s="1" t="inlineStr">
+        <is>
+          <t>おくじょう　…　いこいの　ひろば</t>
+        </is>
+      </c>
+      <c r="L178" s="1" t="inlineStr">
+        <is>
+          <t>１かい……　サービス・カウンター</t>
+        </is>
+      </c>
+      <c r="M178" s="1" t="inlineStr">
+        <is>
+          <t>“1F: Service Counter</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> is not</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>和</t>
+        </is>
+      </c>
+      <c r="J179" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K179" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　　　　　…　じどう　はんばいき</t>
+        </is>
+      </c>
+      <c r="L179" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M179" s="1" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>compatible with</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J180" s="1" t="n"/>
+      <c r="K180" s="1" t="inlineStr">
+        <is>
+          <t>プ</t>
+        </is>
+      </c>
+      <c r="L180" s="1" t="n"/>
+      <c r="M180" s="1" t="inlineStr">
+        <is>
+          <t>“2F: Trainers’ Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J181" s="1" t="inlineStr">
+        <is>
+          <t>３楼……　电子游戏专卖店</t>
+        </is>
+      </c>
+      <c r="L181" s="1" t="inlineStr">
+        <is>
+          <t>３かい……　テレビ　ゲーム　ショップ</t>
+        </is>
+      </c>
+      <c r="M181" s="1" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="J182" s="1" t="inlineStr">
+        <is>
+          <t>４楼……　聪明人礼品店</t>
+        </is>
+      </c>
+      <c r="L182" s="1" t="inlineStr">
+        <is>
+          <t>４かい……　ワイズマン・ギフト</t>
+        </is>
+      </c>
+      <c r="M182" s="1" t="inlineStr">
+        <is>
+          <t>“3F: Video Game Shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>不匹配！</t>
+        </is>
+      </c>
+      <c r="J183" s="1" t="n"/>
+      <c r="L183" s="1" t="n"/>
+      <c r="M183" s="1" t="n"/>
+    </row>
+    <row r="184">
+      <c r="J184" s="1" t="inlineStr">
+        <is>
+          <t>５楼……　饰品天地</t>
+        </is>
+      </c>
+      <c r="L184" s="1" t="inlineStr">
+        <is>
+          <t>５かい……　アクセサリー　マーケット</t>
+        </is>
+      </c>
+      <c r="M184" s="1" t="inlineStr">
+        <is>
+          <t>“4F: Wiseman Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>It can't learn</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>para</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J185" s="1" t="inlineStr">
+        <is>
+          <t>顶楼……　自动贩卖机</t>
+        </is>
+      </c>
+      <c r="L185" s="1" t="inlineStr">
+        <is>
+          <t>おくじょう……　じどう　はんばいき</t>
+        </is>
+      </c>
+      <c r="M185" s="1" t="n"/>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="M186" s="1" t="inlineStr">
+        <is>
+          <t>“5F: Accessory Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wStringBuffer </t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="M187" s="1" t="n"/>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>是学不会的！</t>
+        </is>
+      </c>
+      <c r="M188" s="1" t="inlineStr">
+        <is>
+          <t>“Roof: Relaxation Space &amp; Vending Machines”</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>_ItemUseNotTimeText::</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>_ItemUseNotTimeText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>OAK: &lt;PLAYER&gt;!</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>博士说过……</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>博士说过……</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>オーキドの　ことば…</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>はかせの　ことば……</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>You seem to hear the professor’s voice,</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>This isn't the</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>&lt;PLAYER&gt;！这种东西</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>[VAR TRNAME(0000)]！这种东西</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>{PLAYER}よ!　こういうものには</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>[VAR TRNAME(0000)]よ！　こういうものには</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>echoing in your head...</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>time to use that!</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>是要看场合来用的啊！</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>つかいどきが　あるのじゃ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>是要看场合来用的啊！</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>つかいどきが　あるのじゃ！</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>OAK: [VAR TRNAME(0000)]!</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>This isn’t the time to use that!</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>_ItemUseNotYoursToUseText::</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>_ItemUseNotYoursToUseText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>This isn't yours</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>重要的寄存物品</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>たいせつな　あずかりものです!</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>好像没有可以回忆起的招式……</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>{TARGET}は　まひして</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>おぼえられる</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>This Pokémon doesn’t yet have any moves to</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>to use!</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>是无法使用的！</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>つかうことは　できません!</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>わざが　でにくくなった!</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>わざが　ないみたい……</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>be recovered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>ﾞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="201"/>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>_ItemUseNoEffectText::</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>_ItemUseNoEffectText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>It won't have any</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>就算使用</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>つかっても　こうかがないよ</t>
+        </is>
+      </c>
+      <c r="J203" s="1" t="inlineStr">
+        <is>
+          <t>就算使用也不会有效果哦。</t>
+        </is>
+      </c>
+      <c r="K203" s="1" t="inlineStr">
+        <is>
+          <t>…あら</t>
+        </is>
+      </c>
+      <c r="L203" s="1" t="inlineStr">
+        <is>
+          <t>つかっても　こうかが　ないよ</t>
+        </is>
+      </c>
+      <c r="M203" s="1" t="inlineStr">
+        <is>
+          <t>It won’t have any effect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>effect.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>也不会有效果哦。</t>
+        </is>
+      </c>
+      <c r="K204" s="1" t="inlineStr">
+        <is>
+          <t>おかねが　ないよ</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K205" s="1" t="n"/>
+    </row>
+    <row r="206"/>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>_ThrowBallAtTrainerMonText1::</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>_ThrowBallAtTrainerMonText1::</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>The trainer</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>球被训练家击飞了！</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>トレーナーに　ボールを　はじかれた!</t>
+        </is>
+      </c>
+      <c r="J208" s="1" t="inlineStr">
+        <is>
+          <t>球被训练家击飞了！</t>
+        </is>
+      </c>
+      <c r="K208" s="1" t="inlineStr">
+        <is>
+          <t>ぼくは　ポケモン　トレーナーに</t>
+        </is>
+      </c>
+      <c r="L208" s="1" t="inlineStr">
+        <is>
+          <t>トレーナーに　ボールをはじかれた！</t>
+        </is>
+      </c>
+      <c r="M208" s="1" t="inlineStr">
+        <is>
+          <t>The Trainer blocked your Poké Ball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>blocked the BALL!</t>
+        </is>
+      </c>
+      <c r="J209" s="1" t="n"/>
+      <c r="K209" s="1" t="inlineStr">
+        <is>
+          <t>なった　ばかり　だ!</t>
+        </is>
+      </c>
+      <c r="L209" s="1" t="n"/>
+      <c r="M209" s="1" t="n"/>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J210" s="1" t="inlineStr">
+        <is>
+          <t>拿别人东西的是小偷！</t>
+        </is>
+      </c>
+      <c r="K210" s="1" t="inlineStr">
+        <is>
+          <t>でも　かつ　じしん　あるよ!</t>
+        </is>
+      </c>
+      <c r="L210" s="1" t="inlineStr">
+        <is>
+          <t>ひとのものを　とったら　どろぼう！</t>
+        </is>
+      </c>
+      <c r="M210" s="1" t="inlineStr">
+        <is>
+          <t>Don’t be a thief!</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="K211" s="1" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>_ThrowBallAtTrainerMonText2::</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>_ThrowBallAtTrainerMonText2::</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Don't be a thief!</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>拿别人东西的是小偷！</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>球被训练家击飞了！</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>ぼくは　ポケモン　トレーナーに</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>トレーナーに　ボールをはじかれた！</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>The Trainer blocked your Poké Ball!</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>なった　ばかり　だ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>拿别人东西的是小偷！</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>でも　かつ　じしん　あるよ!</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>ひとのものを　とったら　どろぼう！</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Don’t be a thief!</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>_NoCyclingAllowedHereText::</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>_NoCyclingAllowedHereText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>No cycling</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>这里不能骑自行车。</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>ここでは　じてんしゃに</t>
+        </is>
+      </c>
+      <c r="J217" s="1" t="inlineStr">
+        <is>
+          <t>招式学习器应有尽有！</t>
+        </is>
+      </c>
+      <c r="K217" s="1" t="inlineStr">
+        <is>
+          <t>が　でてきた!</t>
+        </is>
+      </c>
+      <c r="L217" s="1" t="inlineStr">
+        <is>
+          <t>べんり　が　いっぱい！</t>
+        </is>
+      </c>
+      <c r="M217" s="1" t="inlineStr">
+        <is>
+          <t>“‘Loads and loads of TMs!’</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>allowed here.</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>のることは　できません</t>
+        </is>
+      </c>
+      <c r="J218" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
+      <c r="K218" s="1" t="n"/>
+      <c r="L218" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M218" s="1" t="inlineStr">
+        <is>
+          <t>2F: Trainers’ Market”</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="220"/>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>_NoSurfingHereText::</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>_NoSurfingHereText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>No SURFing on</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>不能用</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>能看到肉眼看不见的宝可梦？</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる?</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>みえない　ポケモンも　よくみえる？</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Make the Invisible Plain to See!</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>新产品！西尔佛检视镜！</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>しん　せいひん!　シルフスコープ!</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>しんせいひん！　シルフスコープ！</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Get the new Silph Scope!     — Silph Co.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wcd6d </t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wcd6d </t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>…　シルフ　カンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> here!</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>冲浪！</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>……西尔佛公司</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>……シルフカンパニー</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+    </row>
+    <row r="227"/>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>_BoxFullCannotThrowBallText::</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>_BoxFullCannotThrowBallText::</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>The #MON BOX</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>盒子里寄放的宝可梦已满，</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>你的宝可梦竟然能够</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>きみの　ポケモン　には</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>きみの　ポケモン　ヒジュツが</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Your Pokémon can use Secret Techniques?</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>is full! Can't</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>无法使用！</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>使用秘术，好厉害啊！</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>…　じゃくてんが　ある!</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>つかえる　なんて　すごいね！</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>That’s amazing!</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>cont</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>use that item!</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>そこを　せめれば　おれ　かてるよ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>它和招式不同，</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>そっちは　わざと　ちがって</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Unlike with moves, it will never forget them!</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>是不会忘记的。</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>２どと　わすれないよ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1"/>
+    <hyperlink ref="G39" r:id="rId2"/>
+    <hyperlink ref="G46" r:id="rId3"/>
+    <hyperlink ref="G171" display="要让宝可梦学习@" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M206"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="28" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
+    <col width="34" customWidth="1" min="10" max="13"/>
+    <col width="40" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>data/text/text_7.asm</t>
         </is>
       </c>
@@ -861,7 +6470,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_start</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3880,1450 +9489,1451 @@
       </c>
     </row>
     <row r="149"/>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="150"/>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>_WannaTrade3Text::</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>_WannaTrade3Text::</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Hi! Do you have</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Hi! Do you have</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>ねー　きみ</t>
-        </is>
-      </c>
-      <c r="J151" s="1" t="inlineStr">
-        <is>
-          <t>完了……有人来了！</t>
-        </is>
-      </c>
-      <c r="K151" s="1" t="inlineStr">
-        <is>
-          <t>あ…　ひとだ!</t>
-        </is>
-      </c>
-      <c r="L151" s="1" t="inlineStr">
-        <is>
-          <t>あ……　ひとだ！</t>
-        </is>
-      </c>
-      <c r="M151" s="1" t="inlineStr">
-        <is>
-          <t>Oh! Hi! You’re not a Rocket!</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>Hi! Do you have</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>Hi! Do you have</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve">　もってる?</t>
+          <t>ねー　きみ</t>
         </is>
       </c>
       <c r="J152" s="1" t="inlineStr">
         <is>
-          <t>哦，你不是火箭队的人啊！</t>
+          <t>完了……有人来了！</t>
         </is>
       </c>
       <c r="K152" s="1" t="inlineStr">
         <is>
-          <t>ロケットだん　じゃ　ないね</t>
+          <t>あ…　ひとだ!</t>
         </is>
       </c>
       <c r="L152" s="1" t="inlineStr">
         <is>
-          <t>ロケットだん　じゃ　ないね</t>
+          <t>あ……　ひとだ！</t>
         </is>
       </c>
       <c r="M152" s="1" t="inlineStr">
         <is>
-          <t>You came to save us?</t>
+          <t>Oh! Hi! You’re not a Rocket!</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>わたしの　@</t>
-        </is>
-      </c>
-      <c r="J153" s="1" t="n"/>
+          <t xml:space="preserve">　もってる?</t>
+        </is>
+      </c>
+      <c r="J153" s="1" t="inlineStr">
+        <is>
+          <t>哦，你不是火箭队的人啊！</t>
+        </is>
+      </c>
       <c r="K153" s="1" t="inlineStr">
         <is>
-          <t>きみ…</t>
-        </is>
-      </c>
-      <c r="L153" s="1" t="n"/>
-      <c r="M153" s="1" t="n"/>
+          <t>ロケットだん　じゃ　ないね</t>
+        </is>
+      </c>
+      <c r="L153" s="1" t="inlineStr">
+        <is>
+          <t>ロケットだん　じゃ　ないね</t>
+        </is>
+      </c>
+      <c r="M153" s="1" t="inlineStr">
+        <is>
+          <t>You came to save us?</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>わたしの　@</t>
+        </is>
+      </c>
+      <c r="J154" s="1" t="n"/>
+      <c r="K154" s="1" t="inlineStr">
+        <is>
+          <t>きみ…</t>
+        </is>
+      </c>
+      <c r="L154" s="1" t="n"/>
+      <c r="M154" s="1" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>?</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>とりかえて　くれない?</t>
         </is>
       </c>
-      <c r="J154" s="1" t="inlineStr">
+      <c r="J155" s="1" t="inlineStr">
         <is>
           <t>你……是来救我的吗？</t>
         </is>
       </c>
-      <c r="K154" s="1" t="inlineStr">
+      <c r="K155" s="1" t="inlineStr">
         <is>
           <t>たすけに　きてくれたのか!</t>
         </is>
       </c>
-      <c r="L154" s="1" t="inlineStr">
+      <c r="L155" s="1" t="inlineStr">
         <is>
           <t>きみ……</t>
         </is>
       </c>
-      <c r="M154" s="1" t="inlineStr">
+      <c r="M155" s="1" t="inlineStr">
         <is>
           <t>Why, thank you!</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="J155" s="1" t="n"/>
-      <c r="K155" s="1" t="inlineStr">
+    <row r="156">
+      <c r="J156" s="1" t="n"/>
+      <c r="K156" s="1" t="inlineStr">
         <is>
           <t>おお　ありがとう!</t>
         </is>
       </c>
-      <c r="L155" s="1" t="inlineStr">
+      <c r="L156" s="1" t="inlineStr">
         <is>
           <t>たすけに　きてくれたのか！</t>
         </is>
       </c>
-      <c r="M155" s="1" t="n"/>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Want to trade it</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Want to trade it</t>
-        </is>
-      </c>
-      <c r="J156" s="1" t="inlineStr">
-        <is>
-          <t>天啊！真的太感谢你了！</t>
-        </is>
-      </c>
-      <c r="K156" s="1" t="inlineStr">
-        <is>
-          <t>そうだ!</t>
-        </is>
-      </c>
-      <c r="L156" s="1" t="inlineStr">
-        <is>
-          <t>おお　ありがとう！</t>
-        </is>
-      </c>
-      <c r="M156" s="1" t="inlineStr">
-        <is>
-          <t>I want you to have this Pokémon</t>
-        </is>
-      </c>
+      <c r="M156" s="1" t="n"/>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>for @</t>
+          <t>Want to trade it</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>para</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>for @</t>
-        </is>
-      </c>
-      <c r="J157" s="1" t="n"/>
+          <t>Want to trade it</t>
+        </is>
+      </c>
+      <c r="J157" s="1" t="inlineStr">
+        <is>
+          <t>天啊！真的太感谢你了！</t>
+        </is>
+      </c>
       <c r="K157" s="1" t="inlineStr">
         <is>
-          <t>たすけに　きて　くれた　きみに</t>
-        </is>
-      </c>
-      <c r="L157" s="1" t="n"/>
+          <t>そうだ!</t>
+        </is>
+      </c>
+      <c r="L157" s="1" t="inlineStr">
+        <is>
+          <t>おお　ありがとう！</t>
+        </is>
+      </c>
       <c r="M157" s="1" t="inlineStr">
         <is>
-          <t>for saving us.</t>
+          <t>I want you to have this Pokémon</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
+          <t>for @</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
-        </is>
-      </c>
-      <c r="J158" s="1" t="inlineStr">
-        <is>
-          <t>这样吧！</t>
-        </is>
-      </c>
+          <t>for @</t>
+        </is>
+      </c>
+      <c r="J158" s="1" t="n"/>
       <c r="K158" s="1" t="inlineStr">
         <is>
-          <t>この　ポケモンを　わたそう!</t>
-        </is>
-      </c>
-      <c r="L158" s="1" t="inlineStr">
-        <is>
-          <t>そうだ！</t>
+          <t>たすけに　きて　くれた　きみに</t>
+        </is>
+      </c>
+      <c r="L158" s="1" t="n"/>
+      <c r="M158" s="1" t="inlineStr">
+        <is>
+          <t>for saving us.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>?</t>
+          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>?</t>
+          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
         </is>
       </c>
       <c r="J159" s="1" t="inlineStr">
         <is>
-          <t>为了报答你来救我，</t>
-        </is>
-      </c>
-      <c r="K159" s="1" t="n"/>
+          <t>这样吧！</t>
+        </is>
+      </c>
+      <c r="K159" s="1" t="inlineStr">
+        <is>
+          <t>この　ポケモンを　わたそう!</t>
+        </is>
+      </c>
       <c r="L159" s="1" t="inlineStr">
         <is>
-          <t>たすけに　きて　くれた　きみに</t>
+          <t>そうだ！</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="J160" s="1" t="inlineStr">
+        <is>
+          <t>为了报答你来救我，</t>
+        </is>
+      </c>
+      <c r="K160" s="1" t="n"/>
+      <c r="L160" s="1" t="inlineStr">
+        <is>
+          <t>たすけに　きて　くれた　きみに</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="J160" s="1" t="n"/>
-      <c r="L160" s="1" t="n"/>
-    </row>
-    <row r="161">
-      <c r="J161" s="1" t="inlineStr">
+      <c r="J161" s="1" t="n"/>
+      <c r="L161" s="1" t="n"/>
+    </row>
+    <row r="162">
+      <c r="J162" s="1" t="inlineStr">
         <is>
           <t>就把这只宝可梦送给你好了！</t>
         </is>
       </c>
-      <c r="L161" s="1" t="inlineStr">
+      <c r="L162" s="1" t="inlineStr">
         <is>
           <t>この　ポケモンを　わたそう！</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>_NoTrade3Text::</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>_NoTrade3Text::</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>That's too bad.</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>That's too bad.</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>イヤなら　しょーがないな</t>
-        </is>
-      </c>
-      <c r="J163" s="1" t="inlineStr">
-        <is>
-          <t>是吗……真是遗憾。</t>
-        </is>
-      </c>
-      <c r="K163" s="1" t="inlineStr">
-        <is>
-          <t>…　ざんねん!</t>
-        </is>
-      </c>
-      <c r="L163" s="1" t="inlineStr">
-        <is>
-          <t>そう……　ざんねん　です</t>
-        </is>
-      </c>
-      <c r="M163" s="1" t="inlineStr">
-        <is>
-          <t>I see... That’s too bad.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>That's too bad.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>That's too bad.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>イヤなら　しょーがないな</t>
+        </is>
+      </c>
+      <c r="J164" s="1" t="inlineStr">
+        <is>
+          <t>是吗……真是遗憾。</t>
+        </is>
+      </c>
+      <c r="K164" s="1" t="inlineStr">
+        <is>
+          <t>…　ざんねん!</t>
+        </is>
+      </c>
+      <c r="L164" s="1" t="inlineStr">
+        <is>
+          <t>そう……　ざんねん　です</t>
+        </is>
+      </c>
+      <c r="M164" s="1" t="inlineStr">
+        <is>
+          <t>I see... That’s too bad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="K164" s="1" t="inlineStr">
+      <c r="K165" s="1" t="inlineStr">
         <is>
           <t>ちょうしが　でなかったわ</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="K165" s="1" t="n"/>
-    </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="K166" s="1" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>_WrongMon3Text::</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>_WrongMon3Text::</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>...This is no</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>...This is no</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>じゃ　ないわー</t>
-        </is>
-      </c>
-      <c r="J167" s="1" t="inlineStr">
-        <is>
-          <t>做法就是……</t>
-        </is>
-      </c>
-      <c r="K167" s="1" t="inlineStr">
-        <is>
-          <t>はっはッ!</t>
-        </is>
-      </c>
-      <c r="L167" s="1" t="inlineStr">
-        <is>
-          <t>やりかたは……</t>
-        </is>
-      </c>
-      <c r="M167" s="1" t="inlineStr">
-        <is>
-          <t>The trick is this...</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>...This is no</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>...This is no</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>てに　いれたら</t>
-        </is>
-      </c>
-      <c r="J168" s="1" t="n"/>
+          <t>じゃ　ないわー</t>
+        </is>
+      </c>
+      <c r="J168" s="1" t="inlineStr">
+        <is>
+          <t>做法就是……</t>
+        </is>
+      </c>
       <c r="K168" s="1" t="inlineStr">
         <is>
-          <t>はーッ　はっ　はッ!</t>
-        </is>
-      </c>
-      <c r="L168" s="1" t="n"/>
-      <c r="M168" s="1" t="n"/>
+          <t>はっはッ!</t>
+        </is>
+      </c>
+      <c r="L168" s="1" t="inlineStr">
+        <is>
+          <t>やりかたは……</t>
+        </is>
+      </c>
+      <c r="M168" s="1" t="inlineStr">
+        <is>
+          <t>The trick is this...</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>ぜったい　とりかえてよねっ!</t>
-        </is>
-      </c>
-      <c r="J169" s="1" t="inlineStr">
-        <is>
-          <t>先站稳了！</t>
-        </is>
-      </c>
+          <t>てに　いれたら</t>
+        </is>
+      </c>
+      <c r="J169" s="1" t="n"/>
       <c r="K169" s="1" t="inlineStr">
         <is>
-          <t>…　はァ　はァ…</t>
-        </is>
-      </c>
-      <c r="L169" s="1" t="inlineStr">
-        <is>
-          <t>しっかと！</t>
-        </is>
-      </c>
-      <c r="M169" s="1" t="inlineStr">
-        <is>
-          <t>Hrrrkh! You grit your teeth as hard as you can!</t>
-        </is>
-      </c>
+          <t>はーッ　はっ　はッ!</t>
+        </is>
+      </c>
+      <c r="L169" s="1" t="n"/>
+      <c r="M169" s="1" t="n"/>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>ぜったい　とりかえてよねっ!</t>
+        </is>
+      </c>
+      <c r="J170" s="1" t="inlineStr">
+        <is>
+          <t>先站稳了！</t>
+        </is>
+      </c>
+      <c r="K170" s="1" t="inlineStr">
+        <is>
+          <t>…　はァ　はァ…</t>
+        </is>
+      </c>
+      <c r="L170" s="1" t="inlineStr">
+        <is>
+          <t>しっかと！</t>
+        </is>
+      </c>
+      <c r="M170" s="1" t="inlineStr">
+        <is>
+          <t>Hrrrkh! You grit your teeth as hard as you can!</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>.</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="J170" s="1" t="inlineStr">
+      <c r="J171" s="1" t="inlineStr">
         <is>
           <t>咬紧牙关，蓄满力道！</t>
         </is>
       </c>
-      <c r="K170" s="1" t="inlineStr">
+      <c r="K171" s="1" t="inlineStr">
         <is>
           <t>ゲ</t>
         </is>
       </c>
-      <c r="L170" s="1" t="inlineStr">
+      <c r="L171" s="1" t="inlineStr">
         <is>
           <t>はァ　くいしばって　いっきに！</t>
         </is>
       </c>
-      <c r="M170" s="1" t="inlineStr">
+      <c r="M171" s="1" t="inlineStr">
         <is>
           <t>...If you’ve got ’em...</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="M171" s="1" t="n"/>
-    </row>
     <row r="172">
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>If you get one,</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>If you get one,</t>
-        </is>
-      </c>
-      <c r="M172" s="1" t="inlineStr">
-        <is>
-          <t>Then all at once, just let ’er rip!</t>
-        </is>
-      </c>
+      <c r="M172" s="1" t="n"/>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>trade it with me!</t>
+          <t>If you get one,</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>para</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>trade it with me!</t>
+          <t>If you get one,</t>
+        </is>
+      </c>
+      <c r="M173" s="1" t="inlineStr">
+        <is>
+          <t>Then all at once, just let ’er rip!</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>trade it with me!</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>trade it with me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
     </row>
-    <row r="175"/>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>_Thanks3Text::</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>_Thanks3Text::</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Thanks pal!</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Thanks pal!</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>顽皮雷弹！那里要用撞击！</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>ヤドラン!　そこで　パーンチ!</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>マルマイン！　そこで　たいあたりっ！</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>Electrode! Use Tackle! Now!</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Thanks pal!</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Thanks pal!</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>顽皮雷弹！那里要用撞击！</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>ヤドラン!　そこで　パーンチ!</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>マルマイン！　そこで　たいあたりっ！</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Electrode! Use Tackle! Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>ありがとね</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>给你跪了……又失败！</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>…　がっくし　また　ダメ!</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr">
+      <c r="L179" t="inlineStr">
         <is>
           <t>……がっくし　また　ダメ！</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="M179" t="inlineStr">
+    <row r="180">
+      <c r="M180" t="inlineStr">
         <is>
           <t>D’aww... Failed again?</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>_AfterTrade3Text::</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>_AfterTrade3Text::</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>How is my old</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>How is my old</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　げんき?</t>
-        </is>
-      </c>
-      <c r="J181" s="1" t="inlineStr">
-        <is>
-          <t>１楼……　服务柜台</t>
-        </is>
-      </c>
-      <c r="K181" s="1" t="inlineStr">
-        <is>
-          <t>おくじょう　…　いこいの　ひろば</t>
-        </is>
-      </c>
-      <c r="L181" s="1" t="inlineStr">
-        <is>
-          <t>１かい……　サービス・カウンター</t>
-        </is>
-      </c>
-      <c r="M181" s="1" t="inlineStr">
-        <is>
-          <t>“1F: Service Counter</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>How is my old</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>How is my old</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>わたしの　@</t>
+          <t xml:space="preserve">　げんき?</t>
         </is>
       </c>
       <c r="J182" s="1" t="inlineStr">
         <is>
-          <t>２楼……　训练家广场</t>
+          <t>１楼……　服务柜台</t>
         </is>
       </c>
       <c r="K182" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">　　　　　　…　じどう　はんばいき</t>
+          <t>おくじょう　…　いこいの　ひろば</t>
         </is>
       </c>
       <c r="L182" s="1" t="inlineStr">
         <is>
-          <t>２かい……　トレーナーズ・マーケット</t>
-        </is>
-      </c>
-      <c r="M182" s="1" t="n"/>
+          <t>１かい……　サービス・カウンター</t>
+        </is>
+      </c>
+      <c r="M182" s="1" t="inlineStr">
+        <is>
+          <t>“1F: Service Counter</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
+          <t>@</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>は　げんきよ</t>
-        </is>
-      </c>
-      <c r="J183" s="1" t="n"/>
+          <t>わたしの　@</t>
+        </is>
+      </c>
+      <c r="J183" s="1" t="inlineStr">
+        <is>
+          <t>２楼……　训练家广场</t>
+        </is>
+      </c>
       <c r="K183" s="1" t="inlineStr">
         <is>
-          <t>プ</t>
-        </is>
-      </c>
-      <c r="L183" s="1" t="n"/>
-      <c r="M183" s="1" t="inlineStr">
-        <is>
-          <t>“2F: Trainers’ Market</t>
-        </is>
-      </c>
+          <t xml:space="preserve">　　　　　　…　じどう　はんばいき</t>
+        </is>
+      </c>
+      <c r="L183" s="1" t="inlineStr">
+        <is>
+          <t>２かい……　トレーナーズ・マーケット</t>
+        </is>
+      </c>
+      <c r="M183" s="1" t="n"/>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wInGameTradeReceiveMonName </t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>は　げんきよ</t>
+        </is>
+      </c>
+      <c r="J184" s="1" t="n"/>
+      <c r="K184" s="1" t="inlineStr">
+        <is>
+          <t>プ</t>
+        </is>
+      </c>
+      <c r="L184" s="1" t="n"/>
+      <c r="M184" s="1" t="inlineStr">
+        <is>
+          <t>“2F: Trainers’ Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>?</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="J184" s="1" t="inlineStr">
+      <c r="J185" s="1" t="inlineStr">
         <is>
           <t>３楼……　电子游戏专卖店</t>
         </is>
       </c>
-      <c r="L184" s="1" t="inlineStr">
+      <c r="L185" s="1" t="inlineStr">
         <is>
           <t>３かい……　テレビ　ゲーム　ショップ</t>
         </is>
       </c>
-      <c r="M184" s="1" t="n"/>
-    </row>
-    <row r="185">
-      <c r="J185" s="1" t="inlineStr">
+      <c r="M185" s="1" t="n"/>
+    </row>
+    <row r="186">
+      <c r="J186" s="1" t="inlineStr">
         <is>
           <t>４楼……　聪明人礼品店</t>
         </is>
       </c>
-      <c r="L185" s="1" t="inlineStr">
+      <c r="L186" s="1" t="inlineStr">
         <is>
           <t>４かい……　ワイズマン・ギフト</t>
         </is>
       </c>
-      <c r="M185" s="1" t="inlineStr">
+      <c r="M186" s="1" t="inlineStr">
         <is>
           <t>“3F: Video Game Shop</t>
         </is>
       </c>
-    </row>
-    <row r="186">
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>My @</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>My @</t>
-        </is>
-      </c>
-      <c r="J186" s="1" t="n"/>
-      <c r="L186" s="1" t="n"/>
-      <c r="M186" s="1" t="n"/>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
+          <t>My @</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>text_ram</t>
+          <t>para</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve">wInGameTradeGiveMonName </t>
-        </is>
-      </c>
-      <c r="J187" s="1" t="inlineStr">
-        <is>
-          <t>５楼……　饰品天地</t>
-        </is>
-      </c>
-      <c r="L187" s="1" t="inlineStr">
-        <is>
-          <t>５かい……　アクセサリー　マーケット</t>
-        </is>
-      </c>
-      <c r="M187" s="1" t="inlineStr">
-        <is>
-          <t>“4F: Wiseman Gifts</t>
-        </is>
-      </c>
+          <t>My @</t>
+        </is>
+      </c>
+      <c r="J187" s="1" t="n"/>
+      <c r="L187" s="1" t="n"/>
+      <c r="M187" s="1" t="n"/>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is</t>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is</t>
+          <t xml:space="preserve">wInGameTradeGiveMonName </t>
         </is>
       </c>
       <c r="J188" s="1" t="inlineStr">
         <is>
-          <t>顶楼……　自动贩卖机</t>
+          <t>５楼……　饰品天地</t>
         </is>
       </c>
       <c r="L188" s="1" t="inlineStr">
         <is>
-          <t>おくじょう……　じどう　はんばいき</t>
-        </is>
-      </c>
-      <c r="M188" s="1" t="n"/>
+          <t>５かい……　アクセサリー　マーケット</t>
+        </is>
+      </c>
+      <c r="M188" s="1" t="inlineStr">
+        <is>
+          <t>“4F: Wiseman Gifts</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>doing great!</t>
+          <t xml:space="preserve"> is</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>doing great!</t>
-        </is>
-      </c>
-      <c r="M189" s="1" t="inlineStr">
-        <is>
-          <t>“5F: Accessory Market</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> is</t>
+        </is>
+      </c>
+      <c r="J189" s="1" t="inlineStr">
+        <is>
+          <t>顶楼……　自动贩卖机</t>
+        </is>
+      </c>
+      <c r="L189" s="1" t="inlineStr">
+        <is>
+          <t>おくじょう……　じどう　はんばいき</t>
+        </is>
+      </c>
+      <c r="M189" s="1" t="n"/>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>doing great!</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>doing great!</t>
+        </is>
+      </c>
+      <c r="M190" s="1" t="inlineStr">
+        <is>
+          <t>“5F: Accessory Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
           <t>done</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="M190" s="1" t="n"/>
-    </row>
-    <row r="191">
-      <c r="M191" s="1" t="inlineStr">
+      <c r="M191" s="1" t="n"/>
+    </row>
+    <row r="192">
+      <c r="M192" s="1" t="inlineStr">
         <is>
           <t>“Roof: Relaxation Space &amp; Vending Machines”</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>_NothingToCutText::</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>_NothingToCutText::</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>There isn't</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>眼前没有</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>这里陈列着宝可梦的杂志！</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>『『ウ『ウ『ウ『ウ『</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>ポケモンざっしが　ならんでる！</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>There are Pokémon magazines on the shelves.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>anything to CUT!</t>
+          <t>There isn't</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>能砍断的东西！</t>
+          <t>眼前没有</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>这里陈列着宝可梦的杂志！</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>『『ウ『ウ『ウ『ウ『</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>ポケモンざっしが　ならんでる！</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>There are Pokémon magazines on the shelves.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>anything to CUT!</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>能砍断的东西！</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
           <t>prompt</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>prompt</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>……宝可梦手册</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="L196" t="inlineStr">
         <is>
           <t>……ポケモンてちょう</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
+      <c r="M196" t="inlineStr">
         <is>
           <t>And Pokémon notebooks...</t>
         </is>
       </c>
     </row>
-    <row r="196"/>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="197"/>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>_UsedCutText::</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>_UsedCutText::</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>……宝可梦图表</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>……ポケモングラフ</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
+      <c r="M198" t="inlineStr">
         <is>
           <t>And Pokémon graphs, too!</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>text_ram</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">wcd6d </t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>text_ram</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>wcd6d</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>４楼……　诚心诚意送礼！</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>…　ばかな!</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>４かい……　まごころ　おくろう！</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>“4F: Wiseman Gifts</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hacked</t>
+          <t xml:space="preserve">wcd6d </t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>text_ram</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>wcd6d</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>聪明人礼品店！</t>
+          <t>４楼……　诚心诚意送礼！</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>ほんとに　おわったのか!</t>
+          <t>…　ばかな!</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>ワイズマン・ギフト　ショップ！</t>
+          <t>４かい……　まごころ　おくろう！</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>“‘Express yourself with gifts!</t>
+          <t>“4F: Wiseman Gifts</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>away with CUT!</t>
+          <t xml:space="preserve"> hacked</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>使用了居合斩！</t>
+          <t>text_start</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>聪明人礼品店！</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>ぜんりょくを　かけたのに　まけた!</t>
+          <t>ほんとに　おわったのか!</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>ワイズマン・ギフト　ショップ！</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>“‘Express yourself with gifts!</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>away with CUT!</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>使用了居合斩！</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>ぜんりょくを　かけたのに　まけた!</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
           <t>prompt</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>prompt</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>现在正在举办</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>せっかく　ポケモン　りーグの</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr">
+      <c r="L202" t="inlineStr">
         <is>
           <t>ただいま　ポケモン　しんかのいし</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
+      <c r="M202" t="inlineStr">
         <is>
           <t>“‘Evolution Special!</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>宝可梦进化之石大促销！</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>ちょうてんに　たったのに　よう!</t>
         </is>
       </c>
-      <c r="L202" t="inlineStr">
+      <c r="L203" t="inlineStr">
         <is>
           <t>とくべつ　はんばい　ちゅう！</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr">
+      <c r="M203" t="inlineStr">
         <is>
           <t>“‘Evolution stones on sale now!’”</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>もう…!</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="K204" t="inlineStr">
         <is>
-          <t>おれさまの　てんかは　おわりかよ!</t>
+          <t>もう…!</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="K205" t="inlineStr">
+        <is>
+          <t>おれさまの　てんかは　おわりかよ!</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="K206" t="inlineStr">
         <is>
           <t>…　そりゃ　ないぜ!</t>
         </is>

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1382" documentId="14_{7E550F21-37DC-7D44-98FC-54483FEF0899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACB4B8A-490E-4C48-9039-57A7A06E67FE}"/>
+  <xr:revisionPtr revIDLastSave="1388" documentId="14_{7E550F21-37DC-7D44-98FC-54483FEF0899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABCE4B0-1678-9C41-A4D6-244442E3E731}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13744" uniqueCount="4839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13746" uniqueCount="4840">
   <si>
     <t>data/text/text_1.asm</t>
   </si>
@@ -14712,10 +14712,6 @@
   </si>
   <si>
     <t>“死死光线”这个招式吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -15025,6 +15021,14 @@
   </si>
   <si>
     <t>There are 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Route15UpstairsBinocularsText::</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15640,7 +15644,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>24</v>
@@ -16482,13 +16486,13 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F67" t="s">
         <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -16534,7 +16538,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>147</v>
@@ -17651,7 +17655,7 @@
         <v>298</v>
       </c>
       <c r="I141" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>299</v>
@@ -17747,7 +17751,7 @@
         <v>310</v>
       </c>
       <c r="E148" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -17761,7 +17765,7 @@
         <v>8</v>
       </c>
       <c r="G149" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="J149" t="s">
         <v>312</v>
@@ -17787,7 +17791,7 @@
         <v>26</v>
       </c>
       <c r="G150" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="J150" t="s">
         <v>317</v>
@@ -17873,7 +17877,7 @@
         <v>2476</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="L155" t="s">
         <v>328</v>
@@ -17911,8 +17915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E592" sqref="E592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18114,7 +18118,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>4765</v>
+        <v>4838</v>
       </c>
       <c r="J12" t="s">
         <v>62</v>
@@ -18134,10 +18138,10 @@
         <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>2476</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="K13" t="s">
         <v>344</v>
@@ -18148,7 +18152,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="F14" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -18159,10 +18166,7 @@
         <v>354</v>
       </c>
       <c r="F15" t="s">
-        <v>2476</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>4766</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
         <v>347</v>
@@ -18176,10 +18180,10 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>3764</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>354</v>
+        <v>4765</v>
       </c>
       <c r="J16" t="s">
         <v>350</v>
@@ -18199,10 +18203,10 @@
         <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>92</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -18212,6 +18216,12 @@
       <c r="C18" t="s">
         <v>346</v>
       </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="J18" t="s">
         <v>355</v>
       </c>
@@ -18263,13 +18273,13 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="I23" t="s">
         <v>363</v>
@@ -18440,13 +18450,13 @@
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="K33" t="s">
         <v>307</v>
@@ -19064,13 +19074,13 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F75" t="s">
         <v>56</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="K75" t="s">
         <v>307</v>
@@ -19472,7 +19482,7 @@
         <v>8</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="I104" t="s">
         <v>435</v>
@@ -19589,13 +19599,13 @@
         <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F111" t="s">
         <v>56</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="I111" t="s">
         <v>444</v>
@@ -20543,7 +20553,7 @@
         <v>26</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="I172" t="s">
         <v>536</v>
@@ -21039,7 +21049,7 @@
         <v>8</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="J203" t="s">
         <v>614</v>
@@ -21065,7 +21075,7 @@
         <v>26</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="J204" t="s">
         <v>619</v>
@@ -23380,7 +23390,7 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="F349" t="s">
         <v>8</v>
@@ -25033,7 +25043,7 @@
         <v>26</v>
       </c>
       <c r="G460" s="16" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="I460" t="s">
         <v>1188</v>
@@ -27042,7 +27052,7 @@
         <v>1484</v>
       </c>
       <c r="E592" t="s">
-        <v>1484</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="593" spans="1:13">
@@ -29348,7 +29358,7 @@
         <v>26</v>
       </c>
       <c r="C740" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="F740" t="s">
         <v>26</v>
@@ -29377,7 +29387,7 @@
         <v>32</v>
       </c>
       <c r="C741" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="F741" t="s">
         <v>32</v>
@@ -29826,7 +29836,7 @@
         <v>26</v>
       </c>
       <c r="G772" s="16" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="K772" s="1"/>
     </row>
@@ -31410,7 +31420,7 @@
         <v>26</v>
       </c>
       <c r="G880" s="16" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="881" spans="1:13">
@@ -31613,13 +31623,13 @@
         <v>56</v>
       </c>
       <c r="C893" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="F893" t="s">
         <v>56</v>
       </c>
       <c r="G893" s="16" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="M893" s="1"/>
     </row>
@@ -31942,7 +31952,7 @@
         <v>172</v>
       </c>
       <c r="G916" s="16" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="J916" s="1" t="s">
         <v>308</v>
@@ -31963,7 +31973,7 @@
         <v>26</v>
       </c>
       <c r="G917" s="16" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="918" spans="1:13">
@@ -32130,7 +32140,7 @@
         <v>2712</v>
       </c>
       <c r="G929" s="16" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="I929" t="s">
         <v>1957</v>
@@ -33718,7 +33728,7 @@
         <v>8</v>
       </c>
       <c r="G1037" s="16" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="I1037" t="s">
         <v>2108</v>
@@ -33747,7 +33757,7 @@
         <v>26</v>
       </c>
       <c r="G1038" s="16" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="I1038" t="s">
         <v>2110</v>
@@ -34072,7 +34082,7 @@
         <v>26</v>
       </c>
       <c r="C1064" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="F1064" t="s">
         <v>26</v>
@@ -34787,19 +34797,19 @@
         <v>56</v>
       </c>
       <c r="C1119" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1119" t="s">
         <v>56</v>
       </c>
       <c r="G1119" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J1119" t="s">
         <v>56</v>
       </c>
       <c r="K1119" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="L1119" t="s">
         <v>467</v>
@@ -36422,7 +36432,7 @@
         <v>8</v>
       </c>
       <c r="G1240" s="16" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="L1240" t="s">
         <v>59</v>
@@ -36997,7 +37007,7 @@
         <v>26</v>
       </c>
       <c r="G1276" s="16" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1277" spans="1:13">
@@ -39026,7 +39036,7 @@
         <v>2712</v>
       </c>
       <c r="G1417" s="16" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="J1417" t="s">
         <v>303</v>
@@ -39052,7 +39062,7 @@
         <v>26</v>
       </c>
       <c r="G1418" s="16" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="K1418" t="s">
         <v>307</v>
@@ -39231,7 +39241,7 @@
         <v>26</v>
       </c>
       <c r="G1430" s="16" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="K1430" t="s">
         <v>307</v>
@@ -40574,7 +40584,7 @@
         <v>2573</v>
       </c>
       <c r="E1523" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1524" spans="1:13">
@@ -40588,10 +40598,10 @@
         <v>8</v>
       </c>
       <c r="G1524" s="16" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="I1524" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="J1524" t="s">
         <v>2577</v>
@@ -40617,10 +40627,10 @@
         <v>26</v>
       </c>
       <c r="G1525" s="16" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="I1525" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="K1525" t="s">
         <v>2582</v>
@@ -40963,7 +40973,7 @@
         <v>2615</v>
       </c>
       <c r="E1549" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1550" spans="1:13">
@@ -41520,13 +41530,13 @@
         <v>56</v>
       </c>
       <c r="C1585" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1585" t="s">
         <v>56</v>
       </c>
       <c r="G1585" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J1585" s="1" t="s">
         <v>299</v>
@@ -41807,7 +41817,7 @@
         <v>56</v>
       </c>
       <c r="C1605" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1605" t="s">
         <v>2712</v>
@@ -41896,13 +41906,13 @@
         <v>56</v>
       </c>
       <c r="C1609" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1609" t="s">
         <v>56</v>
       </c>
       <c r="G1609" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1610" spans="1:13">
@@ -42275,13 +42285,13 @@
         <v>56</v>
       </c>
       <c r="C1634" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1634" t="s">
         <v>56</v>
       </c>
       <c r="G1634" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="I1634" t="s">
         <v>2740</v>
@@ -42345,13 +42355,13 @@
         <v>56</v>
       </c>
       <c r="C1640" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1640" t="s">
         <v>56</v>
       </c>
       <c r="G1640" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J1640" s="1" t="s">
         <v>299</v>
@@ -42434,13 +42444,13 @@
         <v>56</v>
       </c>
       <c r="C1644" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F1644" t="s">
         <v>56</v>
       </c>
       <c r="G1644" s="16" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1645" spans="1:13">
@@ -42692,7 +42702,7 @@
         <v>8</v>
       </c>
       <c r="C1664" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="F1664" t="s">
         <v>8</v>
@@ -45660,7 +45670,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -45692,7 +45702,7 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>62</v>
@@ -45824,7 +45834,7 @@
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>299</v>
@@ -45844,13 +45854,13 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F50" t="s">
         <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>303</v>
@@ -45946,7 +45956,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
@@ -45975,7 +45985,7 @@
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
@@ -46561,13 +46571,13 @@
         <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F101" t="s">
         <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="M101" t="s">
         <v>861</v>
@@ -46769,13 +46779,13 @@
         <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F116" t="s">
         <v>56</v>
       </c>
       <c r="G116" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="M116" t="s">
         <v>861</v>
@@ -48425,7 +48435,7 @@
         <v>26</v>
       </c>
       <c r="G234" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>3227</v>
@@ -49631,7 +49641,7 @@
         <v>8</v>
       </c>
       <c r="G324" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>1899</v>
@@ -49657,7 +49667,7 @@
         <v>26</v>
       </c>
       <c r="G325" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>1905</v>
@@ -50247,13 +50257,13 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>338</v>
@@ -51209,13 +51219,13 @@
         <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F89" t="s">
         <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>308</v>
@@ -51379,13 +51389,13 @@
         <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F101" t="s">
         <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -51497,7 +51507,7 @@
         <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>308</v>
@@ -51512,7 +51522,7 @@
         <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F110" t="s">
         <v>2712</v>
@@ -51625,7 +51635,7 @@
         <v>56</v>
       </c>
       <c r="G118" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>512</v>
@@ -51643,7 +51653,7 @@
         <v>56</v>
       </c>
       <c r="C119" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F119" t="s">
         <v>8</v>
@@ -51842,7 +51852,7 @@
         <v>56</v>
       </c>
       <c r="G129" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>1135</v>
@@ -51872,7 +51882,7 @@
         <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F131" t="s">
         <v>26</v>
@@ -54931,7 +54941,7 @@
         <v>56</v>
       </c>
       <c r="G91" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>3768</v>
@@ -54973,7 +54983,7 @@
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
@@ -56383,13 +56393,13 @@
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F76" t="s">
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="I76" t="s">
         <v>3902</v>
@@ -57359,13 +57369,13 @@
         <v>56</v>
       </c>
       <c r="C142" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F142" t="s">
         <v>56</v>
       </c>
       <c r="G142" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="I142" t="s">
         <v>4008</v>
@@ -57456,13 +57466,13 @@
         <v>56</v>
       </c>
       <c r="C148" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F148" t="s">
         <v>56</v>
       </c>
       <c r="G148" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J148" t="s">
         <v>853</v>
@@ -57758,13 +57768,13 @@
         <v>56</v>
       </c>
       <c r="C168" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F168" t="s">
         <v>56</v>
       </c>
       <c r="G168" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="K168" t="s">
         <v>344</v>
@@ -57823,7 +57833,7 @@
         <v>56</v>
       </c>
       <c r="C172" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F172" t="s">
         <v>26</v>
@@ -57849,7 +57859,7 @@
         <v>56</v>
       </c>
       <c r="G173" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J173" t="s">
         <v>358</v>
@@ -57988,13 +57998,13 @@
         <v>56</v>
       </c>
       <c r="C182" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F182" t="s">
         <v>56</v>
       </c>
       <c r="G182" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>350</v>
@@ -58066,7 +58076,7 @@
         <v>56</v>
       </c>
       <c r="G186" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>360</v>
@@ -58077,7 +58087,7 @@
         <v>56</v>
       </c>
       <c r="C187" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F187" t="s">
         <v>22</v>
@@ -58907,13 +58917,13 @@
         <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>57</v>
@@ -59040,13 +59050,13 @@
         <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>57</v>
@@ -59111,7 +59121,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>57</v>
@@ -59162,7 +59172,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>3045</v>
@@ -59182,13 +59192,13 @@
         <v>56</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>3050</v>
@@ -59400,13 +59410,13 @@
         <v>56</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
@@ -59621,13 +59631,13 @@
         <v>56</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>308</v>
@@ -59728,7 +59738,7 @@
         <v>4153</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>828</v>
@@ -59751,7 +59761,7 @@
         <v>8</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>299</v>
@@ -59822,7 +59832,7 @@
         <v>8</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>308</v>
@@ -59871,7 +59881,7 @@
         <v>8</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -60336,7 +60346,7 @@
         <v>8</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>4204</v>
@@ -62652,7 +62662,7 @@
         <v>1806</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
@@ -62670,7 +62680,7 @@
         <v>2476</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -62712,11 +62722,11 @@
         <v>8</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
@@ -62730,11 +62740,11 @@
         <v>26</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
@@ -62748,7 +62758,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="s">
@@ -62793,7 +62803,7 @@
         <v>4442</v>
       </c>
       <c r="J34" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
@@ -62807,7 +62817,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="5" t="s">
@@ -62825,7 +62835,7 @@
         <v>26</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="5" t="s">
@@ -63027,7 +63037,7 @@
         <v>26</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="5" t="s">
@@ -63187,7 +63197,7 @@
         <v>8</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="5" t="s">
@@ -63205,7 +63215,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="5" t="s">
@@ -63337,7 +63347,7 @@
         <v>8</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="5" t="s">
@@ -63355,7 +63365,7 @@
         <v>26</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="5" t="s">
@@ -63418,7 +63428,7 @@
         <v>8</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -63434,7 +63444,7 @@
         <v>26</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -63485,7 +63495,7 @@
         <v>8</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="5" t="s">
@@ -63659,7 +63669,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="5" t="s">
@@ -63677,7 +63687,7 @@
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="5" t="s">
@@ -63740,7 +63750,7 @@
         <v>8</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="5" t="s">
@@ -63758,7 +63768,7 @@
         <v>26</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="5" t="s">
@@ -63821,7 +63831,7 @@
         <v>8</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="5" t="s">
@@ -63839,7 +63849,7 @@
         <v>26</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="5" t="s">

--- a/xlsx/core.xlsx
+++ b/xlsx/core.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeredCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BED28E5-642C-3248-B8BF-150DE701FFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB170085-77A8-E440-9F2B-241F031423FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15026,11 +15026,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打击攻击的抗性变强了！</t>
+    <t>打击攻击抗性变强了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊攻击的抗性变强了！</t>
+    <t>特殊攻击抗性变强了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45068,7 +45068,7 @@
   <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A290" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+      <selection activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
